--- a/biology/Zoologie/Alpin_commun/Alpin_commun.xlsx
+++ b/biology/Zoologie/Alpin_commun/Alpin_commun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia epipsodea
 L'Alpin commun (Erebia epipsodea) est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Erebia.
@@ -512,16 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Erebia epipsodea a été nommé par Butler en 1868[1].
-Nom vernaculaire
-L'Alpin commun se nomme en anglais Common Alpine[1].
-Sous-espèces
-Erebia epipsodea rhodia Edwards, 1871 ;
-Erebia epipsodea remingtoni Ehrlich, 1952 ;
-Erebia epipsodea hopfingeri Ehrlich, 1954 ;
-Erebia epipsodea freemani Ehrlich, 1954 [1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia epipsodea a été nommé par Butler en 1868.
+</t>
         </is>
       </c>
     </row>
@@ -546,15 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Alpin commun est un papillon marron roux de taille moyenne (d'une envergure de 34 à 51 mm) avec une bande submarginale orange formée de la confluence des larges cernes orange qui entourent les ocelles noirs pupillés de blanc. Ils sont deux, gémellés, à l'apex de l'aile antérieure toujours présents. Un autre toujours dans la bande submarginale orange orange de l'aile antérieure et toute une série dans celle de l'aile postérieure.
-Le revers est semblable avec les mêmes ocelles[2],[3],[4].
-Chenille
-La chenille est vert pâle ornée d'une bande sombre sur le dos et de bandes marron et jaunâtres sur les flancs[2].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Alpin commun se nomme en anglais Common Alpine.
 </t>
         </is>
       </c>
@@ -580,17 +591,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il hiverne au second ou troisième stade de la chenille[2].
-Il vole en une génération de juin à août, en certains lieux de mai à octobre[3],[2].
-Plantes hôtes
-Les plantes hôtes des chenilles sont des graminées, des Poaceae[1].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Erebia epipsodea rhodia Edwards, 1871 ;
+Erebia epipsodea remingtoni Ehrlich, 1952 ;
+Erebia epipsodea hopfingeri Ehrlich, 1954 ;
+Erebia epipsodea freemani Ehrlich, 1954 .</t>
         </is>
       </c>
     </row>
@@ -615,16 +630,234 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Alpin commun est un papillon marron roux de taille moyenne (d'une envergure de 34 à 51 mm) avec une bande submarginale orange formée de la confluence des larges cernes orange qui entourent les ocelles noirs pupillés de blanc. Ils sont deux, gémellés, à l'apex de l'aile antérieure toujours présents. Un autre toujours dans la bande submarginale orange orange de l'aile antérieure et toute une série dans celle de l'aile postérieure.
+Le revers est semblable avec les mêmes ocelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alpin_commun</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alpin_commun</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est vert pâle ornée d'une bande sombre sur le dos et de bandes marron et jaunâtres sur les flancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alpin_commun</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alpin_commun</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il hiverne au second ou troisième stade de la chenille.
+Il vole en une génération de juin à août, en certains lieux de mai à octobre,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alpin_commun</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alpin_commun</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes des chenilles sont des graminées, des Poaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alpin_commun</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alpin_commun</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans le nord-est de l'Amérique du Nord de l'Alaska au Colorado[1]. Au Canada il se rencontre dans le sud-ouest du Manitoba, le Yukon et jusqu'en Colombie-Britannique[2]. Aux USA il réside dans les Montagnes Rocheuses, dans l'État de Washington, l'Oregon, l'Idaho, le Montana, le nord et l'est de l'Utah et le nord du Nouveau-Mexique.
-Biotope
-Il réside dans les prairies[2].
-Protection
-Pas de statut de protection particulier[4].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le nord-est de l'Amérique du Nord de l'Alaska au Colorado. Au Canada il se rencontre dans le sud-ouest du Manitoba, le Yukon et jusqu'en Colombie-Britannique. Aux USA il réside dans les Montagnes Rocheuses, dans l'État de Washington, l'Oregon, l'Idaho, le Montana, le nord et l'est de l'Utah et le nord du Nouveau-Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alpin_commun</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alpin_commun</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les prairies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alpin_commun</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alpin_commun</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
